--- a/CTT.xlsx
+++ b/CTT.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unlock_2023\ML_KKU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1667EE1A-8A85-4262-A702-1C6E691328B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A393AB-E952-488B-8833-C409A1307B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9D36B16-5EF4-439E-A282-728E03A811DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$422</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="116">
   <si>
     <t>Zone</t>
   </si>
@@ -392,9 +395,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -668,7 +671,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -677,10 +680,10 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -710,16 +713,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -734,7 +737,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,25 +752,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,19 +779,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,7 +1124,7 @@
   <dimension ref="A1:Q422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21971,57 +21974,23 @@
       </c>
     </row>
     <row r="394" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A394" s="42">
-        <v>4</v>
-      </c>
-      <c r="B394" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C394" s="43">
-        <v>1802</v>
-      </c>
-      <c r="D394" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E394" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F394" s="44">
-        <v>0</v>
-      </c>
-      <c r="G394" s="19">
-        <v>242881</v>
-      </c>
-      <c r="H394" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I394" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J394" s="21">
-        <v>1.85</v>
-      </c>
-      <c r="K394" s="37">
-        <v>0</v>
-      </c>
-      <c r="L394" s="31">
-        <v>0</v>
-      </c>
-      <c r="M394" s="33">
-        <v>0</v>
-      </c>
-      <c r="N394" s="34">
-        <v>0</v>
-      </c>
-      <c r="O394" s="26">
-        <v>0</v>
-      </c>
-      <c r="P394" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q394" s="28">
-        <v>0</v>
-      </c>
+      <c r="A394" s="42"/>
+      <c r="B394" s="42"/>
+      <c r="C394" s="43"/>
+      <c r="D394" s="42"/>
+      <c r="E394" s="16"/>
+      <c r="F394" s="44"/>
+      <c r="G394" s="19"/>
+      <c r="H394" s="36"/>
+      <c r="I394" s="32"/>
+      <c r="J394" s="21"/>
+      <c r="K394" s="37"/>
+      <c r="L394" s="31"/>
+      <c r="M394" s="33"/>
+      <c r="N394" s="34"/>
+      <c r="O394" s="26"/>
+      <c r="P394" s="35"/>
+      <c r="Q394" s="28"/>
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="42">
@@ -23508,6 +23477,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q422" xr:uid="{7AE85FE3-B149-474A-92EB-CD970AD55D66}"/>
   <conditionalFormatting sqref="C1:C422">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
